--- a/06.Paper Material/Computation times.xlsx
+++ b/06.Paper Material/Computation times.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>3bus</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>Comp time</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>nb cores</t>
+  </si>
+  <si>
+    <t>cpu time/mode</t>
   </si>
 </sst>
 </file>
@@ -369,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,73 +396,210 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>39075</v>
+      </c>
+      <c r="D4">
+        <v>6346</v>
+      </c>
+      <c r="G4">
+        <v>677960</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>2843875</v>
+      </c>
+      <c r="J4">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>72</v>
+      </c>
+      <c r="P4">
+        <f>C4/L4</f>
+        <v>1085.4166666666667</v>
+      </c>
+      <c r="Q4">
+        <f>D4/M4</f>
+        <v>88.138888888888886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1336</v>
+      </c>
+      <c r="D7">
+        <v>20301</v>
+      </c>
+      <c r="G7">
+        <v>121496</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1620835</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <f>C7/L7</f>
+        <v>111.33333333333333</v>
+      </c>
+      <c r="Q7">
+        <f>D7/M7</f>
+        <v>1691.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>4427</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>405217</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>36</v>
+      </c>
+      <c r="P10" t="e">
+        <f>C10/L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10">
+        <f>D10/M10</f>
+        <v>122.97222222222223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/06.Paper Material/Computation times.xlsx
+++ b/06.Paper Material/Computation times.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>3bus</t>
   </si>
@@ -48,12 +49,6 @@
     <t>NNAEPC</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>Comp time</t>
   </si>
   <si>
@@ -67,6 +62,24 @@
   </si>
   <si>
     <t>cpu time/mode</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Training -single largest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training - sum 96 </t>
+  </si>
+  <si>
+    <t>Relaxed problem</t>
+  </si>
+  <si>
+    <t>Relaxed problem-reduced</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -384,42 +397,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -457,27 +476,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>39075</v>
-      </c>
-      <c r="D4">
-        <v>6346</v>
-      </c>
-      <c r="G4">
-        <v>677960</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>2843875</v>
-      </c>
-      <c r="J4">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="L4">
         <v>36</v>
@@ -486,51 +498,30 @@
         <v>72</v>
       </c>
       <c r="P4">
-        <f>C4/L4</f>
-        <v>1085.4166666666667</v>
+        <f>C3/L4</f>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f>D4/M4</f>
-        <v>88.138888888888886</v>
+        <f>D3/M4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1336</v>
-      </c>
-      <c r="D7">
-        <v>20301</v>
-      </c>
-      <c r="G7">
-        <v>121496</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1620835</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -539,71 +530,103 @@
         <v>12</v>
       </c>
       <c r="P7">
-        <f>C7/L7</f>
-        <v>111.33333333333333</v>
+        <f>C6/L7</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>D7/M7</f>
-        <v>1691.75</v>
+        <f>D6/M7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>4279</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>4427</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>405217</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="E10">
+        <v>326</v>
       </c>
       <c r="M10">
         <v>36</v>
       </c>
       <c r="P10" t="e">
-        <f>C10/L10</f>
+        <f>C9/L10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10">
-        <f>D10/M10</f>
-        <v>122.97222222222223</v>
+        <f>D9/M10</f>
+        <v>118.86111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>3631</v>
+      </c>
+      <c r="D11">
+        <v>19551</v>
+      </c>
+      <c r="E11">
+        <v>26497</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/06.Paper Material/Computation times.xlsx
+++ b/06.Paper Material/Computation times.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,6 +483,12 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>39292</v>
+      </c>
+      <c r="D3">
+        <v>5427</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -499,11 +505,11 @@
       </c>
       <c r="P4">
         <f>C3/L4</f>
-        <v>0</v>
+        <v>1091.4444444444443</v>
       </c>
       <c r="Q4">
         <f>D3/M4</f>
-        <v>0</v>
+        <v>75.375</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -518,6 +524,15 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6">
+        <v>385</v>
+      </c>
+      <c r="D6">
+        <v>7498</v>
+      </c>
+      <c r="G6">
+        <v>398408</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -531,11 +546,11 @@
       </c>
       <c r="P7">
         <f>C6/L7</f>
-        <v>0</v>
+        <v>32.083333333333336</v>
       </c>
       <c r="Q7">
         <f>D6/M7</f>
-        <v>0</v>
+        <v>624.83333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -552,6 +567,9 @@
       </c>
       <c r="D9">
         <v>4279</v>
+      </c>
+      <c r="E9">
+        <v>33809</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
